--- a/medicine/Psychotrope/Abbaye_de_Boneffe_(bière)/Abbaye_de_Boneffe_(bière).xlsx
+++ b/medicine/Psychotrope/Abbaye_de_Boneffe_(bière)/Abbaye_de_Boneffe_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abbaye_de_Boneffe_(bi%C3%A8re)</t>
+          <t>Abbaye_de_Boneffe_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbaye de Boneffe est une bière brassée à la Brasserie de Tubize[1]. 
-L'abbaye de Bonneffe est une bière d'abbaye brune moeleuse[2] titrant à 9 % en volume d'alcool et se réfère à l'ancienne Abbaye de Boneffe près d'Éghezée. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbaye de Boneffe est une bière brassée à la Brasserie de Tubize. 
+L'abbaye de Bonneffe est une bière d'abbaye brune moeleuse titrant à 9 % en volume d'alcool et se réfère à l'ancienne Abbaye de Boneffe près d'Éghezée. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abbaye_de_Boneffe_(bi%C3%A8re)</t>
+          <t>Abbaye_de_Boneffe_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'abbaye de Boneffe a été créée en 2012 par Jean Rodriguez[3], propriétaire de la Brasserie de Tubize mais aussi du restaurant bruxellois 't Spinnekopje (L'arraignée en Bruxellois).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'abbaye de Boneffe a été créée en 2012 par Jean Rodriguez, propriétaire de la Brasserie de Tubize mais aussi du restaurant bruxellois 't Spinnekopje (L'arraignée en Bruxellois).
 </t>
         </is>
       </c>
